--- a/medicine/Enfance/Charlotte_Link/Charlotte_Link.xlsx
+++ b/medicine/Enfance/Charlotte_Link/Charlotte_Link.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte Link, née le 5 octobre 1963 à Francfort-sur-le-Main, est une écrivaine allemande qui a publié son premier roman à l'âge de dix-neuf ans. Elle a écrit des livres pour enfants, des nouvelles, des romans et de nombreux articles de magazines et de quotidiens.
 </t>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trilogie Le Temps des orages
-Le Temps des orages, Jean-Claude Lattès, 2002 ((de) Sturmzeit, 1989), trad. Gerald Messadié
+          <t>Trilogie Le Temps des orages</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Temps des orages, Jean-Claude Lattès, 2002 ((de) Sturmzeit, 1989), trad. Gerald Messadié
 Les Lupins sauvages, Jean-Claude Lattès, 2002 ((de) Wilde Lupinen, 1992), trad. Theresa Révay
-L'Heure de l'héritage, Jean-Claude Lattès, 2003 ((de) Die Stunde der Erben, 1994), trad. Theresa Révay
-Romans indépendants
-La Belle Hélène, L'Archipel, 2012 ((de) Cromwells Traum oder Die schöne Helena, 1985), trad. Jean-Marie Argelès
+L'Heure de l'héritage, Jean-Claude Lattès, 2003 ((de) Die Stunde der Erben, 1994), trad. Theresa Révay</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charlotte_Link</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlotte_Link</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Belle Hélène, L'Archipel, 2012 ((de) Cromwells Traum oder Die schöne Helena, 1985), trad. Jean-Marie Argelès
 Les Trois Vies de Margareta, L'Archipel, 2009 ((de) Wenn die Liebe nicht endet, 1986), trad. Jean-Marie Argelès
 Le Péché des anges, Presses de la Cité, 2012 ((de) Die Sünde der Engel, 1996), trad. Corinne Tresca
 Le Soupirant, Presses de la Cité, 2009 ((de) Der Verehrer, 1998), trad. Danièle Darneau
